--- a/result/NewSummary.xlsx
+++ b/result/NewSummary.xlsx
@@ -1244,10 +1244,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/result/NewSummary.xlsx
+++ b/result/NewSummary.xlsx
@@ -1244,10 +1244,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
